--- a/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,184 +531,184 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.07727147372242</v>
+        <v>1.25226</v>
       </c>
       <c r="H2">
-        <v>1.07727147372242</v>
+        <v>3.75678</v>
       </c>
       <c r="I2">
-        <v>0.05402548271546571</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J2">
-        <v>0.05402548271546571</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>5.1567672601022</v>
+        <v>0.006601</v>
       </c>
       <c r="N2">
-        <v>5.1567672601022</v>
+        <v>0.019803</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.0009255397585646605</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.001383055057785483</v>
       </c>
       <c r="Q2">
-        <v>5.555238265933823</v>
+        <v>0.00826616826</v>
       </c>
       <c r="R2">
-        <v>5.555238265933823</v>
+        <v>0.07439551434000001</v>
       </c>
       <c r="S2">
-        <v>0.05402548271546571</v>
+        <v>5.325374068044857E-05</v>
       </c>
       <c r="T2">
-        <v>0.05402548271546571</v>
+        <v>8.516914279490886E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.9585420016724</v>
+        <v>1.25226</v>
       </c>
       <c r="H3">
-        <v>10.9585420016724</v>
+        <v>3.75678</v>
       </c>
       <c r="I3">
-        <v>0.5495741193743037</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J3">
-        <v>0.5495741193743037</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>5.1567672601022</v>
+        <v>0.01638633333333333</v>
       </c>
       <c r="N3">
-        <v>5.1567672601022</v>
+        <v>0.049159</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.00229756142964602</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.003433298166221107</v>
       </c>
       <c r="Q3">
-        <v>56.51065061267906</v>
+        <v>0.02051994978</v>
       </c>
       <c r="R3">
-        <v>56.51065061267906</v>
+        <v>0.18467954802</v>
       </c>
       <c r="S3">
-        <v>0.5495741193743037</v>
+        <v>0.000132197174070099</v>
       </c>
       <c r="T3">
-        <v>0.5495741193743037</v>
+        <v>0.0002114240211409849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.31824693663406</v>
+        <v>1.25226</v>
       </c>
       <c r="H4">
-        <v>1.31824693663406</v>
+        <v>3.75678</v>
       </c>
       <c r="I4">
-        <v>0.06611047338304436</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J4">
-        <v>0.06611047338304436</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.1567672601022</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N4">
-        <v>5.1567672601022</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.004375410573021655</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.006538275278730677</v>
       </c>
       <c r="Q4">
-        <v>6.797892643564539</v>
+        <v>0.03907760814</v>
       </c>
       <c r="R4">
-        <v>6.797892643564539</v>
+        <v>0.35169847326</v>
       </c>
       <c r="S4">
-        <v>0.06611047338304436</v>
+        <v>0.0002517525345291903</v>
       </c>
       <c r="T4">
-        <v>0.06611047338304436</v>
+        <v>0.0004026298864329133</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,114 +720,1044 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.30678429864417</v>
+        <v>1.25226</v>
       </c>
       <c r="H5">
-        <v>2.30678429864417</v>
+        <v>3.75678</v>
       </c>
       <c r="I5">
-        <v>0.1156859141773027</v>
+        <v>0.05753803679167191</v>
       </c>
       <c r="J5">
-        <v>0.1156859141773027</v>
+        <v>0.06158044274193954</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.1567672601022</v>
+        <v>7.0778615</v>
       </c>
       <c r="N5">
-        <v>5.1567672601022</v>
+        <v>14.155723</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9924014882387677</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9886453714972628</v>
       </c>
       <c r="Q5">
-        <v>11.89554974736607</v>
+        <v>8.86332284199</v>
       </c>
       <c r="R5">
-        <v>11.89554974736607</v>
+        <v>53.17993705194</v>
       </c>
       <c r="S5">
-        <v>0.1156859141773027</v>
+        <v>0.05710083334239217</v>
       </c>
       <c r="T5">
-        <v>0.1156859141773027</v>
+        <v>0.06088121969157075</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.48419333333333</v>
+      </c>
+      <c r="H6">
+        <v>37.45258</v>
+      </c>
+      <c r="I6">
+        <v>0.5736156831070852</v>
+      </c>
+      <c r="J6">
+        <v>0.6139157624955174</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.006601</v>
+      </c>
+      <c r="N6">
+        <v>0.019803</v>
+      </c>
+      <c r="O6">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P6">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q6">
+        <v>0.08240816019333333</v>
+      </c>
+      <c r="R6">
+        <v>0.7416734417400001</v>
+      </c>
+      <c r="S6">
+        <v>0.0005309041208518344</v>
+      </c>
+      <c r="T6">
+        <v>0.0008490793003736569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.48419333333333</v>
+      </c>
+      <c r="H7">
+        <v>37.45258</v>
+      </c>
+      <c r="I7">
+        <v>0.5736156831070852</v>
+      </c>
+      <c r="J7">
+        <v>0.6139157624955174</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.049159</v>
+      </c>
+      <c r="O7">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P7">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q7">
+        <v>0.2045701533577778</v>
+      </c>
+      <c r="R7">
+        <v>1.84113138022</v>
+      </c>
+      <c r="S7">
+        <v>0.001317917268946893</v>
+      </c>
+      <c r="T7">
+        <v>0.002107755861590092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>12.48419333333333</v>
+      </c>
+      <c r="H8">
+        <v>37.45258</v>
+      </c>
+      <c r="I8">
+        <v>0.5736156831070852</v>
+      </c>
+      <c r="J8">
+        <v>0.6139157624955174</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P8">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q8">
+        <v>0.3895775757622222</v>
+      </c>
+      <c r="R8">
+        <v>3.50619818186</v>
+      </c>
+      <c r="S8">
+        <v>0.00250980412471778</v>
+      </c>
+      <c r="T8">
+        <v>0.004013950253147535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>12.48419333333333</v>
+      </c>
+      <c r="H9">
+        <v>37.45258</v>
+      </c>
+      <c r="I9">
+        <v>0.5736156831070852</v>
+      </c>
+      <c r="J9">
+        <v>0.6139157624955174</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>7.0778615</v>
+      </c>
+      <c r="N9">
+        <v>14.155723</v>
+      </c>
+      <c r="O9">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P9">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q9">
+        <v>88.36139135255665</v>
+      </c>
+      <c r="R9">
+        <v>530.16834811534</v>
+      </c>
+      <c r="S9">
+        <v>0.5692570575925687</v>
+      </c>
+      <c r="T9">
+        <v>0.6069449770804062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.405587666666666</v>
+      </c>
+      <c r="H10">
+        <v>4.216762999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.06458303777058033</v>
+      </c>
+      <c r="J10">
+        <v>0.06912039897939969</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.006601</v>
+      </c>
+      <c r="N10">
+        <v>0.019803</v>
+      </c>
+      <c r="O10">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P10">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q10">
+        <v>0.009278284187666665</v>
+      </c>
+      <c r="R10">
+        <v>0.08350455768899999</v>
+      </c>
+      <c r="S10">
+        <v>5.977416918555527E-05</v>
+      </c>
+      <c r="T10">
+        <v>9.559731740460931E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.405587666666666</v>
+      </c>
+      <c r="H11">
+        <v>4.216762999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.06458303777058033</v>
+      </c>
+      <c r="J11">
+        <v>0.06912039897939969</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.049159</v>
+      </c>
+      <c r="O11">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P11">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q11">
+        <v>0.02303242803522222</v>
+      </c>
+      <c r="R11">
+        <v>0.207291852317</v>
+      </c>
+      <c r="S11">
+        <v>0.0001483834965910575</v>
+      </c>
+      <c r="T11">
+        <v>0.0002373109390644442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.405587666666666</v>
+      </c>
+      <c r="H12">
+        <v>4.216762999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.06458303777058033</v>
+      </c>
+      <c r="J12">
+        <v>0.06912039897939969</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P12">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q12">
+        <v>0.04386230019677777</v>
+      </c>
+      <c r="R12">
+        <v>0.394760701771</v>
+      </c>
+      <c r="S12">
+        <v>0.0002825773062992541</v>
+      </c>
+      <c r="T12">
+        <v>0.0004519281959030101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.27921726704312</v>
-      </c>
-      <c r="H6">
-        <v>4.27921726704312</v>
-      </c>
-      <c r="I6">
-        <v>0.2146040103498836</v>
-      </c>
-      <c r="J6">
-        <v>0.2146040103498836</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="N6">
-        <v>5.1567672601022</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>22.06692750155197</v>
-      </c>
-      <c r="R6">
-        <v>22.06692750155197</v>
-      </c>
-      <c r="S6">
-        <v>0.2146040103498836</v>
-      </c>
-      <c r="T6">
-        <v>0.2146040103498836</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.405587666666666</v>
+      </c>
+      <c r="H13">
+        <v>4.216762999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.06458303777058033</v>
+      </c>
+      <c r="J13">
+        <v>0.06912039897939969</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.0778615</v>
+      </c>
+      <c r="N13">
+        <v>14.155723</v>
+      </c>
+      <c r="O13">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P13">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q13">
+        <v>9.948554830774832</v>
+      </c>
+      <c r="R13">
+        <v>59.69132898464899</v>
+      </c>
+      <c r="S13">
+        <v>0.06409230279850447</v>
+      </c>
+      <c r="T13">
+        <v>0.06833556252702763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.007822</v>
+      </c>
+      <c r="I14">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J14">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006601</v>
+      </c>
+      <c r="N14">
+        <v>0.019803</v>
+      </c>
+      <c r="O14">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P14">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q14">
+        <v>0.01541954434066667</v>
+      </c>
+      <c r="R14">
+        <v>0.138775899066</v>
+      </c>
+      <c r="S14">
+        <v>9.933845887242333E-05</v>
+      </c>
+      <c r="T14">
+        <v>0.0001588728093205627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.007822</v>
+      </c>
+      <c r="I15">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J15">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.049159</v>
+      </c>
+      <c r="O15">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P15">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q15">
+        <v>0.03827750241088889</v>
+      </c>
+      <c r="R15">
+        <v>0.344497521698</v>
+      </c>
+      <c r="S15">
+        <v>0.0002465979548406533</v>
+      </c>
+      <c r="T15">
+        <v>0.0003943861250007344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.007822</v>
+      </c>
+      <c r="I16">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J16">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P16">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q16">
+        <v>0.07289458579711112</v>
+      </c>
+      <c r="R16">
+        <v>0.6560512721740001</v>
+      </c>
+      <c r="S16">
+        <v>0.0004696141243377092</v>
+      </c>
+      <c r="T16">
+        <v>0.0007510577079312792</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.335940666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.007822</v>
+      </c>
+      <c r="I17">
+        <v>0.1073302988371658</v>
+      </c>
+      <c r="J17">
+        <v>0.1148709217512615</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.0778615</v>
+      </c>
+      <c r="N17">
+        <v>14.155723</v>
+      </c>
+      <c r="O17">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P17">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q17">
+        <v>16.53346451088433</v>
+      </c>
+      <c r="R17">
+        <v>99.200787065306</v>
+      </c>
+      <c r="S17">
+        <v>0.106514748299115</v>
+      </c>
+      <c r="T17">
+        <v>0.113566605109009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>4.286056</v>
+      </c>
+      <c r="H18">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J18">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.006601</v>
+      </c>
+      <c r="N18">
+        <v>0.019803</v>
+      </c>
+      <c r="O18">
+        <v>0.0009255397585646605</v>
+      </c>
+      <c r="P18">
+        <v>0.001383055057785483</v>
+      </c>
+      <c r="Q18">
+        <v>0.028292255656</v>
+      </c>
+      <c r="R18">
+        <v>0.169753533936</v>
+      </c>
+      <c r="S18">
+        <v>0.0001822692689743988</v>
+      </c>
+      <c r="T18">
+        <v>0.0001943364878917455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.286056</v>
+      </c>
+      <c r="H19">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J19">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.01638633333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.049159</v>
+      </c>
+      <c r="O19">
+        <v>0.00229756142964602</v>
+      </c>
+      <c r="P19">
+        <v>0.003433298166221107</v>
+      </c>
+      <c r="Q19">
+        <v>0.07023274230133333</v>
+      </c>
+      <c r="R19">
+        <v>0.4213964538080001</v>
+      </c>
+      <c r="S19">
+        <v>0.0004524655351973172</v>
+      </c>
+      <c r="T19">
+        <v>0.0004824212194248507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.286056</v>
+      </c>
+      <c r="H20">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J20">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.004375410573021655</v>
+      </c>
+      <c r="P20">
+        <v>0.006538275278730677</v>
+      </c>
+      <c r="Q20">
+        <v>0.1337492348506667</v>
+      </c>
+      <c r="R20">
+        <v>0.8024954091040001</v>
+      </c>
+      <c r="S20">
+        <v>0.0008616624831377216</v>
+      </c>
+      <c r="T20">
+        <v>0.000918709235315939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.286056</v>
+      </c>
+      <c r="H21">
+        <v>8.572112000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.1969329434934967</v>
+      </c>
+      <c r="J21">
+        <v>0.1405124740318818</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.0778615</v>
+      </c>
+      <c r="N21">
+        <v>14.155723</v>
+      </c>
+      <c r="O21">
+        <v>0.9924014882387677</v>
+      </c>
+      <c r="P21">
+        <v>0.9886453714972628</v>
+      </c>
+      <c r="Q21">
+        <v>30.336110749244</v>
+      </c>
+      <c r="R21">
+        <v>121.344442996976</v>
+      </c>
+      <c r="S21">
+        <v>0.1954365462061873</v>
+      </c>
+      <c r="T21">
+        <v>0.1389170070892493</v>
       </c>
     </row>
   </sheetData>
